--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T09:51:22+00:00</t>
+    <t>2022-11-08T21:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -348,21 +348,27 @@
     <t>What is being tested with this Test Plan - a conformance resource, or narrative criteria, or an external reference...</t>
   </si>
   <si>
-    <t>TestPlan.testCase</t>
+    <t>TestPlan.testTools</t>
+  </si>
+  <si>
+    <t>A description of test tools to be used in the test plan - narrative for now</t>
+  </si>
+  <si>
+    <t>TestPlan.enterCriteria</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>The test cases that are part of this plan</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.id</t>
+    <t>The required criteria to execute the test plan - e.g. preconditions, previous tests...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>TestPlan.enterCriteria.id</t>
   </si>
   <si>
     <t xml:space="preserve">id
@@ -378,7 +384,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>TestPlan.testCase.extension</t>
+    <t>TestPlan.enterCriteria.extension</t>
   </si>
   <si>
     <t>extensions
@@ -415,7 +421,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>TestPlan.testCase.modifierExtension</t>
+    <t>TestPlan.enterCriteria.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -439,6 +445,39 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>TestPlan.enterCriteria.description</t>
+  </si>
+  <si>
+    <t>description of the criteria</t>
+  </si>
+  <si>
+    <t>TestPlan.enterCriteria.predecessor</t>
+  </si>
+  <si>
+    <t>link to predecessor test plans</t>
+  </si>
+  <si>
+    <t>TestPlan.successCriteria</t>
+  </si>
+  <si>
+    <t>The threshold or criteria for the test plan to be considered successfully executed - narrative</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase</t>
+  </si>
+  <si>
+    <t>The test cases that are part of this plan</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.modifierExtension</t>
   </si>
   <si>
     <t>TestPlan.testCase.sequence</t>
@@ -810,7 +849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2592,13 +2631,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2661,7 +2700,7 @@
         <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
@@ -2669,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2680,7 +2719,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2692,13 +2731,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2749,38 +2788,38 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2792,17 +2831,15 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -2839,31 +2876,31 @@
         <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -2871,18 +2908,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2894,15 +2931,17 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -2939,31 +2978,31 @@
         <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -2971,11 +3010,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -2988,24 +3027,26 @@
         <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
       </c>
@@ -3041,19 +3082,19 @@
         <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3065,51 +3106,47 @@
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
       </c>
@@ -3157,27 +3194,27 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3200,13 +3237,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3257,7 +3294,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3277,7 +3314,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3300,13 +3337,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3357,7 +3394,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3377,7 +3414,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3400,13 +3437,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3457,7 +3494,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -3469,7 +3506,7 @@
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -3477,7 +3514,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3488,7 +3525,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3500,13 +3537,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3557,13 +3594,13 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
@@ -3572,16 +3609,16 @@
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3600,15 +3637,17 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
@@ -3645,19 +3684,19 @@
         <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3669,10 +3708,10 @@
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -3681,35 +3720,39 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
@@ -3757,22 +3800,22 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
@@ -3781,14 +3824,14 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -3800,17 +3843,15 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -3847,39 +3888,39 @@
         <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3890,7 +3931,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -3902,13 +3943,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3959,13 +4000,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -3974,16 +4015,16 @@
         <v>71</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4002,17 +4043,15 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4049,19 +4088,19 @@
         <v>71</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4073,19 +4112,19 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4098,26 +4137,22 @@
         <v>71</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4165,7 +4200,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4177,15 +4212,15 @@
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4196,7 +4231,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4208,13 +4243,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4265,19 +4300,19 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
@@ -4285,7 +4320,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4308,13 +4343,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4365,7 +4400,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4380,6 +4415,412 @@
         <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T21:39:49+00:00</t>
+    <t>2022-11-12T23:23:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="207">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T23:23:29+00:00</t>
+    <t>2022-11-15T08:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,7 +496,137 @@
     <t>Specific test scope for one test case</t>
   </si>
   <si>
-    <t>TestPlan.testCase.testScript</t>
+    <t>TestPlan.testCase.dependencies</t>
+  </si>
+  <si>
+    <t>Any dependencies required for the test case</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.exists()  implies (reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids')) or (reference='#' and %rootResource!=%resource))}ref-2:At least one of reference, identifier and display SHALL be present (unless an extension is provided). {reference.exists() or identifier.exists() or display.exists() or extension.exists()}</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient") - must be a resource in resources</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
+This element only allows for a single identifier. In the case where additional identifers are required, use the [additional identifiers](http://build.fhir.org/extension-additionalidentifier.html) extension.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.narrative</t>
+  </si>
+  <si>
+    <t>The narrative description of the tests</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure</t>
+  </si>
+  <si>
+    <t>The test cases in a structured language e.g. gherkin</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure.language</t>
+  </si>
+  <si>
+    <t>The language for the test cases</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.structure.structure</t>
+  </si>
+  <si>
+    <t>The actual content of the cases</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.testScript</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(TestScript)
@@ -504,12 +634,6 @@
   </si>
   <si>
     <t>The testScripts that are included in this test case</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.dependencies</t>
-  </si>
-  <si>
-    <t>Any dependencies required for the test case</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData</t>
@@ -849,7 +973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -858,7 +982,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -882,13 +1006,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="43.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -4043,13 +4167,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4120,7 +4244,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4143,13 +4267,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4200,7 +4324,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4212,7 +4336,7 @@
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
@@ -4220,7 +4344,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4231,7 +4355,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4243,13 +4367,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4300,38 +4424,38 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4343,15 +4467,17 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -4388,31 +4514,31 @@
         <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -4420,18 +4546,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4440,19 +4566,19 @@
         <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4490,75 +4616,73 @@
         <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>132</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>71</v>
       </c>
@@ -4582,13 +4706,11 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4606,19 +4728,19 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>137</v>
@@ -4626,7 +4748,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4646,18 +4768,20 @@
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -4706,7 +4830,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -4718,15 +4842,15 @@
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4746,18 +4870,20 @@
         <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -4806,7 +4932,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -4818,9 +4944,1421 @@
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T08:37:23+00:00</t>
+    <t>2022-11-17T16:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T16:05:46+00:00</t>
+    <t>2022-11-17T16:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T16:07:39+00:00</t>
+    <t>2022-11-18T09:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T09:17:21+00:00</t>
+    <t>2022-11-20T07:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,65 +599,69 @@
     <t>The narrative description of the tests</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.structure</t>
-  </si>
-  <si>
-    <t>The test cases in a structured language e.g. gherkin</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.structure.id</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.structure.extension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.structure.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.structure.language</t>
-  </si>
-  <si>
-    <t>The language for the test cases</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.structure.structure</t>
-  </si>
-  <si>
-    <t>The actual content of the cases</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.testScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(TestScript)
+    <t>TestPlan.testCase.content.script</t>
+  </si>
+  <si>
+    <t>The test cases in a structured language e.g. gherkin, Postman, or FHIR TestScript</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.script.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.script.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.script.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.script.language</t>
+  </si>
+  <si>
+    <t>The language for the test cases e.g. 'gherkin', 'testscript'</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.content.script.source[x]</t>
+  </si>
+  <si>
+    <t>string
+Reference</t>
+  </si>
+  <si>
+    <t>The actual content of the cases - references to TestScripts or externally defined content</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData</t>
+  </si>
+  <si>
+    <t>The test data used in the test case</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>The testScripts that are included in this test case</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.testData</t>
-  </si>
-  <si>
-    <t>The test data used in the test case</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.testData.id</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.testData.extension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.testData.modifierExtension</t>
+    <t>The type of test data description, e.g. 'synthea'</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData.content</t>
   </si>
   <si>
-    <t>The actual test resources</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.testData.definition</t>
+    <t>The actual test resources when they exist</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testData.source[x]</t>
   </si>
   <si>
     <t>Pointer to a definition of test resources - narrative or structured e.g. synthetic data generation, et.</t>
@@ -982,7 +986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1012,7 +1016,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.12109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.9765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -5581,13 +5585,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5658,7 +5662,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5669,7 +5673,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -5681,7 +5685,7 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>197</v>
@@ -5738,19 +5742,19 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -5769,7 +5773,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -5781,13 +5785,13 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5838,38 +5842,38 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -5881,15 +5885,17 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>71</v>
@@ -5926,31 +5932,31 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -5958,11 +5964,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -5975,24 +5981,26 @@
         <v>71</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>71</v>
       </c>
@@ -6028,19 +6036,19 @@
         <v>71</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6055,48 +6063,44 @@
         <v>129</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>71</v>
       </c>
@@ -6144,27 +6148,27 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6190,10 +6194,10 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6244,7 +6248,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6287,13 +6291,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6344,7 +6348,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:22:41+00:00</t>
+    <t>2022-11-23T07:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -354,7 +354,7 @@
     <t>A description of test tools to be used in the test plan - narrative for now</t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria</t>
+    <t>TestPlan.dependencies</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -368,7 +368,7 @@
 </t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria.id</t>
+    <t>TestPlan.dependencies.id</t>
   </si>
   <si>
     <t xml:space="preserve">id
@@ -384,7 +384,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria.extension</t>
+    <t>TestPlan.dependencies.extension</t>
   </si>
   <si>
     <t>extensions
@@ -421,7 +421,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria.modifierExtension</t>
+    <t>TestPlan.dependencies.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -447,19 +447,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria.description</t>
+    <t>TestPlan.dependencies.description</t>
   </si>
   <si>
     <t>description of the criteria</t>
   </si>
   <si>
-    <t>TestPlan.enterCriteria.predecessor</t>
+    <t>TestPlan.dependencies.predecessor</t>
   </si>
   <si>
     <t>link to predecessor test plans</t>
   </si>
   <si>
-    <t>TestPlan.successCriteria</t>
+    <t>TestPlan.exitCriteria</t>
   </si>
   <si>
     <t>The threshold or criteria for the test plan to be considered successfully executed - narrative</t>
@@ -499,23 +499,41 @@
     <t>TestPlan.testCase.dependencies</t>
   </si>
   <si>
-    <t>Any dependencies required for the test case</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content</t>
+    <t>The required criteria to execute the test case - e.g. preconditions, previous tests...</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.dependencies.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.dependencies.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.dependencies.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.dependencies.description</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.dependencies.predecessor</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun</t>
+  </si>
+  <si>
+    <t>The actual test to be executed</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ref-1:SHALL have a contained resource if a local reference is provided {reference.exists()  implies (reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids')) or (reference='#' and %rootResource!=%resource))}ref-2:At least one of reference, identifier and display SHALL be present (unless an extension is provided). {reference.exists() or identifier.exists() or display.exists() or extension.exists()}</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.id</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.extension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.reference</t>
+    <t>TestPlan.testCase.testRun.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -534,7 +552,7 @@
 </t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.type</t>
+    <t>TestPlan.testCase.testRun.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient") - must be a resource in resources</t>
@@ -556,7 +574,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.identifier</t>
+    <t>TestPlan.testCase.testRun.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -578,7 +596,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.display</t>
+    <t>TestPlan.testCase.testRun.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -593,34 +611,34 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.narrative</t>
+    <t>TestPlan.testCase.testRun.narrative</t>
   </si>
   <si>
     <t>The narrative description of the tests</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.script</t>
+    <t>TestPlan.testCase.testRun.script</t>
   </si>
   <si>
     <t>The test cases in a structured language e.g. gherkin, Postman, or FHIR TestScript</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.script.id</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.script.extension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.script.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestPlan.testCase.content.script.language</t>
+    <t>TestPlan.testCase.testRun.script.id</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun.script.extension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun.script.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.testRun.script.language</t>
   </si>
   <si>
     <t>The language for the test cases e.g. 'gherkin', 'testscript'</t>
   </si>
   <si>
-    <t>TestPlan.testCase.content.script.source[x]</t>
+    <t>TestPlan.testCase.testRun.script.source[x]</t>
   </si>
   <si>
     <t>string
@@ -665,6 +683,9 @@
   </si>
   <si>
     <t>Pointer to a definition of test resources - narrative or structured e.g. synthetic data generation, et.</t>
+  </si>
+  <si>
+    <t>TestPlan.testCase.assertions</t>
   </si>
 </sst>
 </file>
@@ -977,7 +998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -986,7 +1007,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.05078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1016,7 +1037,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.9765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="42.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2147,7 +2168,7 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2222,7 +2243,7 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2347,7 +2368,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2422,7 +2443,7 @@
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2447,7 +2468,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2522,7 +2543,7 @@
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2747,7 +2768,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2822,7 +2843,7 @@
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -3453,7 +3474,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3528,7 +3549,7 @@
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -4171,7 +4192,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>155</v>
@@ -4240,7 +4261,7 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
@@ -4259,7 +4280,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4271,13 +4292,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4328,38 +4349,38 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4371,15 +4392,17 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>71</v>
@@ -4416,31 +4439,31 @@
         <v>71</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -4448,11 +4471,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4465,24 +4488,26 @@
         <v>71</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>71</v>
       </c>
@@ -4518,19 +4543,19 @@
         <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4545,12 +4570,12 @@
         <v>129</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4570,20 +4595,18 @@
         <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>71</v>
@@ -4632,7 +4655,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -4641,18 +4664,18 @@
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4672,20 +4695,18 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>71</v>
@@ -4710,11 +4731,13 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4732,7 +4755,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -4744,15 +4767,15 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4763,7 +4786,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4772,20 +4795,18 @@
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -4834,27 +4855,27 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4874,20 +4895,18 @@
         <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -4936,7 +4955,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -4948,26 +4967,26 @@
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4979,15 +4998,17 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -5024,39 +5045,39 @@
         <v>71</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5076,18 +5097,20 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -5136,7 +5159,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5145,18 +5168,18 @@
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5176,18 +5199,20 @@
         <v>71</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -5212,13 +5237,11 @@
         <v>71</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>71</v>
@@ -5236,7 +5259,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5248,26 +5271,26 @@
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5276,19 +5299,19 @@
         <v>71</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5326,75 +5349,73 @@
         <v>71</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>132</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>71</v>
       </c>
@@ -5442,19 +5463,19 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>137</v>
@@ -5462,7 +5483,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5485,13 +5506,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5542,7 +5563,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -5562,7 +5583,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5585,13 +5606,13 @@
         <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5642,7 +5663,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -5654,7 +5675,7 @@
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>71</v>
@@ -5662,7 +5683,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5673,7 +5694,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -5685,13 +5706,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5742,38 +5763,38 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -5785,15 +5806,17 @@
         <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>71</v>
@@ -5830,31 +5853,31 @@
         <v>71</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -5862,11 +5885,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -5879,24 +5902,26 @@
         <v>71</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>71</v>
       </c>
@@ -5932,19 +5957,19 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -5959,48 +5984,44 @@
         <v>129</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>71</v>
       </c>
@@ -6048,27 +6069,27 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6076,7 +6097,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>77</v>
@@ -6091,13 +6112,13 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6148,10 +6169,10 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -6168,7 +6189,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6179,7 +6200,7 @@
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>71</v>
@@ -6191,13 +6212,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6248,19 +6269,19 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
@@ -6268,7 +6289,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6291,13 +6312,13 @@
         <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6348,7 +6369,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -6363,6 +6384,612 @@
         <v>71</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-TestPlan.xlsx
+++ b/StructureDefinition-TestPlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T07:28:11+00:00</t>
+    <t>2022-11-23T07:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
